--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H2">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I2">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J2">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>64.83020420394999</v>
+        <v>498.9203369183296</v>
       </c>
       <c r="R2">
-        <v>259.3208168158</v>
+        <v>1995.681347673318</v>
       </c>
       <c r="S2">
-        <v>0.0004538806586091887</v>
+        <v>0.002987879311628706</v>
       </c>
       <c r="T2">
-        <v>0.0002231309321598975</v>
+        <v>0.00152701086332733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H3">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I3">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J3">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>4485.506269165416</v>
+        <v>6431.714408759224</v>
       </c>
       <c r="R3">
-        <v>26913.0376149925</v>
+        <v>38590.28645255535</v>
       </c>
       <c r="S3">
-        <v>0.03140333374918478</v>
+        <v>0.03851754478266874</v>
       </c>
       <c r="T3">
-        <v>0.02315715045180198</v>
+        <v>0.02952765314997154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H4">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I4">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J4">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>5983.728561710442</v>
+        <v>6911.74268301972</v>
       </c>
       <c r="R4">
-        <v>35902.37137026265</v>
+        <v>41470.45609811832</v>
       </c>
       <c r="S4">
-        <v>0.04189248967940584</v>
+        <v>0.04139228538458281</v>
       </c>
       <c r="T4">
-        <v>0.0308919649759079</v>
+        <v>0.03173143700661168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H5">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I5">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J5">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>962.1021244509624</v>
+        <v>1494.921389306975</v>
       </c>
       <c r="R5">
-        <v>3848.40849780385</v>
+        <v>5979.685557227898</v>
       </c>
       <c r="S5">
-        <v>0.006735742255590431</v>
+        <v>0.008952621012024842</v>
       </c>
       <c r="T5">
-        <v>0.003311338387681358</v>
+        <v>0.004575402188237137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H6">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I6">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J6">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>200.8025780954833</v>
+        <v>2398.29620956562</v>
       </c>
       <c r="R6">
-        <v>1204.8154685729</v>
+        <v>14389.77725739372</v>
       </c>
       <c r="S6">
-        <v>0.001405832474469484</v>
+        <v>0.01436265290763576</v>
       </c>
       <c r="T6">
-        <v>0.001036675735809866</v>
+        <v>0.01101044824541682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.109325</v>
+        <v>46.0411815</v>
       </c>
       <c r="H7">
-        <v>64.21865</v>
+        <v>92.082363</v>
       </c>
       <c r="I7">
-        <v>0.1141736648813302</v>
+        <v>0.1617813835183017</v>
       </c>
       <c r="J7">
-        <v>0.08242563340967465</v>
+        <v>0.1209708360422164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>4611.066017083783</v>
+        <v>9278.89048324748</v>
       </c>
       <c r="R7">
-        <v>27666.3961025027</v>
+        <v>55673.34289948488</v>
       </c>
       <c r="S7">
-        <v>0.03228238606407043</v>
+        <v>0.05556840011976085</v>
       </c>
       <c r="T7">
-        <v>0.02380537292631364</v>
+        <v>0.04259888458865185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>547.541687</v>
       </c>
       <c r="I8">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J8">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>368.5039509902007</v>
+        <v>1977.792301404997</v>
       </c>
       <c r="R8">
-        <v>2211.023705941204</v>
+        <v>11866.75380842998</v>
       </c>
       <c r="S8">
-        <v>0.002579921165285019</v>
+        <v>0.01184438529118097</v>
       </c>
       <c r="T8">
-        <v>0.001902461154457667</v>
+        <v>0.009079937535633971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>547.541687</v>
       </c>
       <c r="I9">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J9">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>25496.24519427412</v>
@@ -1013,10 +1013,10 @@
         <v>229466.2067484671</v>
       </c>
       <c r="S9">
-        <v>0.1785009426228743</v>
+        <v>0.152689112676228</v>
       </c>
       <c r="T9">
-        <v>0.1974427245744416</v>
+        <v>0.1755778250269955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>547.541687</v>
       </c>
       <c r="I10">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J10">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>34012.35031909494</v>
+        <v>27399.14662970819</v>
       </c>
       <c r="R10">
-        <v>306111.1528718544</v>
+        <v>246592.3196673737</v>
       </c>
       <c r="S10">
-        <v>0.2381227724520521</v>
+        <v>0.1640849997753998</v>
       </c>
       <c r="T10">
-        <v>0.2633913764561156</v>
+        <v>0.1886820014548757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>547.541687</v>
       </c>
       <c r="I11">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J11">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>5468.723081619478</v>
+        <v>5926.084378999734</v>
       </c>
       <c r="R11">
-        <v>32812.33848971687</v>
+        <v>35556.50627399841</v>
       </c>
       <c r="S11">
-        <v>0.03828690136819724</v>
+        <v>0.03548948319955495</v>
       </c>
       <c r="T11">
-        <v>0.02823316601982307</v>
+        <v>0.02720633301787503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>547.541687</v>
       </c>
       <c r="I12">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J12">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>1141.389947877034</v>
+        <v>9507.192689449592</v>
       </c>
       <c r="R12">
-        <v>10272.5095308933</v>
+        <v>85564.73420504632</v>
       </c>
       <c r="S12">
-        <v>0.00799094847276096</v>
+        <v>0.05693563129523033</v>
       </c>
       <c r="T12">
-        <v>0.008838914883095491</v>
+        <v>0.06547051151284766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>547.541687</v>
       </c>
       <c r="I13">
-        <v>0.648979085048722</v>
+        <v>0.6413247790408747</v>
       </c>
       <c r="J13">
-        <v>0.7027782485177876</v>
+        <v>0.7193188085796143</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>26209.94436831487</v>
+        <v>36782.86252410479</v>
       </c>
       <c r="R13">
-        <v>235889.4993148338</v>
+        <v>331045.7627169431</v>
       </c>
       <c r="S13">
-        <v>0.1834975989675524</v>
+        <v>0.2202811668032807</v>
       </c>
       <c r="T13">
-        <v>0.202969605429854</v>
+        <v>0.2533022000313864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H14">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I14">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J14">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>11.01203369657267</v>
+        <v>31.55399791475301</v>
       </c>
       <c r="R14">
-        <v>66.07220217943599</v>
+        <v>189.323987488518</v>
       </c>
       <c r="S14">
-        <v>7.709599511831325E-05</v>
+        <v>0.0001889671167765985</v>
       </c>
       <c r="T14">
-        <v>5.685140222517035E-05</v>
+        <v>0.0001448626986069013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H15">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I15">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J15">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>761.9063797307609</v>
+        <v>406.7709572550389</v>
       </c>
       <c r="R15">
-        <v>6857.157417576849</v>
+        <v>3660.93861529535</v>
       </c>
       <c r="S15">
-        <v>0.005334158262757261</v>
+        <v>0.002436025228517968</v>
       </c>
       <c r="T15">
-        <v>0.005900197081508863</v>
+        <v>0.002801195211874883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H16">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I16">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J16">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>1016.393845458301</v>
+        <v>437.1301349518134</v>
       </c>
       <c r="R16">
-        <v>9147.544609124714</v>
+        <v>3934.17121456632</v>
       </c>
       <c r="S16">
-        <v>0.007115842278263751</v>
+        <v>0.002617836937213861</v>
       </c>
       <c r="T16">
-        <v>0.007870946037695351</v>
+        <v>0.0030102612272427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H17">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I17">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J17">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>163.4222989745361</v>
+        <v>94.54564769251634</v>
       </c>
       <c r="R17">
-        <v>980.533793847217</v>
+        <v>567.273886155098</v>
       </c>
       <c r="S17">
-        <v>0.001144130603948813</v>
+        <v>0.0005662045898747319</v>
       </c>
       <c r="T17">
-        <v>0.0008436940085331397</v>
+        <v>0.00043405395738686</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H18">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I18">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J18">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>34.10824913322422</v>
+        <v>151.6791920389915</v>
       </c>
       <c r="R18">
-        <v>306.974242199018</v>
+        <v>1365.112728350923</v>
       </c>
       <c r="S18">
-        <v>0.0002387941665568726</v>
+        <v>0.0009083596846284623</v>
       </c>
       <c r="T18">
-        <v>0.0002641340161272071</v>
+        <v>0.001044526456234384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.454077666666667</v>
+        <v>2.911854333333334</v>
       </c>
       <c r="H19">
-        <v>16.362233</v>
+        <v>8.735563000000001</v>
       </c>
       <c r="I19">
-        <v>0.0193934950594803</v>
+        <v>0.01023179265394023</v>
       </c>
       <c r="J19">
-        <v>0.02100117986008241</v>
+        <v>0.01147612121345596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>783.2339105011482</v>
+        <v>586.8393595018756</v>
       </c>
       <c r="R19">
-        <v>7049.105194510335</v>
+        <v>5281.55423551688</v>
       </c>
       <c r="S19">
-        <v>0.005483473752835283</v>
+        <v>0.003514399096928609</v>
       </c>
       <c r="T19">
-        <v>0.006065357313992673</v>
+        <v>0.004041221662110229</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H20">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I20">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J20">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>65.57349579839</v>
+        <v>504.2250005288685</v>
       </c>
       <c r="R20">
-        <v>262.29398319356</v>
+        <v>2016.900002115474</v>
       </c>
       <c r="S20">
-        <v>0.0004590844934970409</v>
+        <v>0.00301964729838783</v>
       </c>
       <c r="T20">
-        <v>0.0002256891740838665</v>
+        <v>0.001543246479236722</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H21">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I21">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J21">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>4536.933518973083</v>
+        <v>6500.09823449834</v>
       </c>
       <c r="R21">
-        <v>27221.6011138385</v>
+        <v>39000.58940699005</v>
       </c>
       <c r="S21">
-        <v>0.03176337941462386</v>
+        <v>0.03892707432688007</v>
       </c>
       <c r="T21">
-        <v>0.0234226519336091</v>
+        <v>0.02984159959708723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H22">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I22">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J22">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>6052.333237539289</v>
+        <v>6985.23030655996</v>
       </c>
       <c r="R22">
-        <v>36313.99942523574</v>
+        <v>41911.38183935976</v>
       </c>
       <c r="S22">
-        <v>0.04237279566997327</v>
+        <v>0.04183237999245722</v>
       </c>
       <c r="T22">
-        <v>0.03124614769342784</v>
+        <v>0.0320688147135193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H23">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I23">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J23">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>973.1328227323926</v>
+        <v>1510.815820757603</v>
       </c>
       <c r="R23">
-        <v>3892.53129092957</v>
+        <v>6043.263283030414</v>
       </c>
       <c r="S23">
-        <v>0.006812968922733795</v>
+        <v>0.009047807837229782</v>
       </c>
       <c r="T23">
-        <v>0.003349303561787043</v>
+        <v>0.004624049171924826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H24">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I24">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J24">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>203.1048208582967</v>
+        <v>2423.795580284314</v>
       </c>
       <c r="R24">
-        <v>1218.62892514978</v>
+        <v>14542.77348170589</v>
       </c>
       <c r="S24">
-        <v>0.001421950632267919</v>
+        <v>0.01451536073810932</v>
       </c>
       <c r="T24">
-        <v>0.001048561435848127</v>
+        <v>0.0111275144778818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.477465</v>
+        <v>46.5307045</v>
       </c>
       <c r="H25">
-        <v>64.95493</v>
+        <v>93.061409</v>
       </c>
       <c r="I25">
-        <v>0.1154826893777783</v>
+        <v>0.163501489424012</v>
       </c>
       <c r="J25">
-        <v>0.08337066021056311</v>
+        <v>0.1222570325437526</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>4663.932835166357</v>
+        <v>9377.546298716306</v>
       </c>
       <c r="R25">
-        <v>27983.59701099814</v>
+        <v>56265.27779229783</v>
       </c>
       <c r="S25">
-        <v>0.03265251024468235</v>
+        <v>0.05615921923094776</v>
       </c>
       <c r="T25">
-        <v>0.02407830641180713</v>
+        <v>0.0430518081041027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H26">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I26">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J26">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>44.61814579587267</v>
+        <v>13.177577646995</v>
       </c>
       <c r="R26">
-        <v>267.708874775236</v>
+        <v>79.06546588197001</v>
       </c>
       <c r="S26">
-        <v>0.0003123746662287639</v>
+        <v>7.891642956875977E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002303483827852735</v>
+        <v>6.049754659307867E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H27">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I27">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J27">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>3087.063740479928</v>
+        <v>169.8756489828055</v>
       </c>
       <c r="R27">
-        <v>27783.57366431935</v>
+        <v>1528.88084084525</v>
       </c>
       <c r="S27">
-        <v>0.02161274271618297</v>
+        <v>0.001017332627249289</v>
       </c>
       <c r="T27">
-        <v>0.02390619760717581</v>
+        <v>0.001169834881418095</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H28">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I28">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J28">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>4118.186525055819</v>
+        <v>182.5542459225333</v>
       </c>
       <c r="R28">
-        <v>37063.67872550237</v>
+        <v>1642.9882133028</v>
       </c>
       <c r="S28">
-        <v>0.02883170329662383</v>
+        <v>0.001093260815967106</v>
       </c>
       <c r="T28">
-        <v>0.03189120443489373</v>
+        <v>0.001257145011129714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H29">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I29">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J29">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>662.1483517810112</v>
+        <v>39.48414451377833</v>
       </c>
       <c r="R29">
-        <v>3972.890110686067</v>
+        <v>236.90486708267</v>
       </c>
       <c r="S29">
-        <v>0.004635745540117285</v>
+        <v>0.0002364583076704448</v>
       </c>
       <c r="T29">
-        <v>0.003418447792395698</v>
+        <v>0.0001812695729366369</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H30">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I30">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J30">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>138.1985266846576</v>
+        <v>63.34424994028277</v>
       </c>
       <c r="R30">
-        <v>1243.786740161918</v>
+        <v>570.098249462545</v>
       </c>
       <c r="S30">
-        <v>0.0009675372626179409</v>
+        <v>0.0003793490862213347</v>
       </c>
       <c r="T30">
-        <v>0.001070208316278679</v>
+        <v>0.0004362150405966033</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.09862766666667</v>
+        <v>1.216048333333333</v>
       </c>
       <c r="H31">
-        <v>66.295883</v>
+        <v>3.648145</v>
       </c>
       <c r="I31">
-        <v>0.07857783710966491</v>
+        <v>0.004273000287618414</v>
       </c>
       <c r="J31">
-        <v>0.08509179418640352</v>
+        <v>0.004792656663830743</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>3173.477831064782</v>
+        <v>245.0757982250222</v>
       </c>
       <c r="R31">
-        <v>28561.30047958304</v>
+        <v>2205.6821840252</v>
       </c>
       <c r="S31">
-        <v>0.02221773362789412</v>
+        <v>0.00146768302094148</v>
       </c>
       <c r="T31">
-        <v>0.02457538765287431</v>
+        <v>0.001687694611156616</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H32">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I32">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J32">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>13.283166338872</v>
+        <v>58.24764961688401</v>
       </c>
       <c r="R32">
-        <v>79.698998033232</v>
+        <v>349.4858977013041</v>
       </c>
       <c r="S32">
-        <v>9.299634885208788E-05</v>
+        <v>0.0003488271260222738</v>
       </c>
       <c r="T32">
-        <v>6.857649124249322E-05</v>
+        <v>0.0002674118105036044</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H33">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I33">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J33">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>919.0426996024667</v>
+        <v>750.8859022088666</v>
       </c>
       <c r="R33">
-        <v>8271.3842964222</v>
+        <v>6757.973119879799</v>
       </c>
       <c r="S33">
-        <v>0.006434280300479431</v>
+        <v>0.004496823012790488</v>
       </c>
       <c r="T33">
-        <v>0.007117059521004</v>
+        <v>0.005170914875845092</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H34">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I34">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J34">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>1226.015910142951</v>
+        <v>806.92795272544</v>
       </c>
       <c r="R34">
-        <v>11034.14319128656</v>
+        <v>7262.351574528961</v>
       </c>
       <c r="S34">
-        <v>0.008583420576779887</v>
+        <v>0.004832441489186913</v>
       </c>
       <c r="T34">
-        <v>0.009494257676993198</v>
+        <v>0.005556843912249354</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H35">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I35">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J35">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>197.126674379434</v>
+        <v>174.528177838924</v>
       </c>
       <c r="R35">
-        <v>1182.760046276604</v>
+        <v>1047.169067033544</v>
       </c>
       <c r="S35">
-        <v>0.001380097223129295</v>
+        <v>0.001045195181022533</v>
       </c>
       <c r="T35">
-        <v>0.001017698289276338</v>
+        <v>0.000801249429406563</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H36">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I36">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J36">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>41.14276792535734</v>
+        <v>279.9948347568493</v>
       </c>
       <c r="R36">
-        <v>370.284911328216</v>
+        <v>2519.953512811644</v>
       </c>
       <c r="S36">
-        <v>0.000288043309939604</v>
+        <v>0.001676802311367463</v>
       </c>
       <c r="T36">
-        <v>0.0003186092749665279</v>
+        <v>0.001928161724630771</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.578932000000001</v>
+        <v>5.375188000000001</v>
       </c>
       <c r="H37">
-        <v>19.736796</v>
+        <v>16.125564</v>
       </c>
       <c r="I37">
-        <v>0.02339322852302436</v>
+        <v>0.01888755507525308</v>
       </c>
       <c r="J37">
-        <v>0.0253324838154887</v>
+        <v>0.02118454495713003</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>944.7688412604455</v>
+        <v>1083.286291835627</v>
       </c>
       <c r="R37">
-        <v>8502.919571344009</v>
+        <v>9749.57662652064</v>
       </c>
       <c r="S37">
-        <v>0.006614390763844055</v>
+        <v>0.006487465954863412</v>
       </c>
       <c r="T37">
-        <v>0.007316282562006136</v>
+        <v>0.007459963204494646</v>
       </c>
     </row>
   </sheetData>
